--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07585457982476401</v>
+        <v>0.0819823287407358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992804853162837</v>
+        <v>0.9992223608716773</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0819823287407358</v>
+        <v>0.07542471083036653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992223608716773</v>
+        <v>0.9992845628163405</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07542471083036653</v>
+        <v>0.08041674500432616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992845628163405</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9992372111350304</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2144501238200131</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08041674500432616</v>
+        <v>0.07669419371074328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992372111350304</v>
+        <v>0.9992725212023039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2144501238200131</v>
+        <v>0.207546847481027</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07669419371074328</v>
+        <v>0.08557473815421481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992725212023039</v>
+        <v>0.9991882852584594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207546847481027</v>
+        <v>0.2201936378481086</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,6 +499,12 @@
         <is>
           <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1180509527000443</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08557473815421481</v>
+        <v>0.09520491433811808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991882852584594</v>
+        <v>0.9990969387216108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2201936378481086</v>
+        <v>0.2307566843440901</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1180509527000443</v>
+        <v>0.1174825656164709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
+++ b/predictions/single/AdaBoostRegressor/Macroalbuminuria.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09520491433811808</v>
+        <v>0.08498203287993761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990969387216108</v>
+        <v>0.9991939073336056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2307566843440901</v>
+        <v>0.2184149706477075</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1174825656164709</v>
+        <v>0.1177988315665668</v>
       </c>
       <c r="H2" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
